--- a/assets/DRL Data Dictionary.xlsx
+++ b/assets/DRL Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85169D5-7AD5-4EAF-ABF2-A65BE27169BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F708B9-B967-448A-85BE-B33205222035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="6" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_model_runs" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="147">
   <si>
     <t>Column</t>
   </si>
@@ -473,6 +473,18 @@
   </si>
   <si>
     <t>obstacle</t>
+  </si>
+  <si>
+    <t>improvement_multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a collision occurs, the improvement multiplier adjusts the penalty based on the drone's position between the obstacles midpoint and the obstacle's closest boundary point (which would be the closest exit point for the drone). </t>
+  </si>
+  <si>
+    <t>drone_damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of damage incurred by each drone. Damage is incurred whenever a collision with an obstacle occurs. Obstacle damage is specified in the sidebar. </t>
   </si>
 </sst>
 </file>
@@ -1503,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20A5FF3-022A-4020-8367-945DBCFC823C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1586,7 +1598,7 @@
         <v>80</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F11" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
+        <f t="shared" ref="F3:F13" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
         <v>cint_episode_id</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1762,6 +1774,48 @@
       </c>
       <c r="G11" s="8" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29">
+      <c r="A12" s="5">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_improvement_multiplier</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29">
+      <c r="A13" s="5">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_drone_damage</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF37A31-3B28-4604-9D8C-DBF68941C386}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/assets/DRL Data Dictionary.xlsx
+++ b/assets/DRL Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F708B9-B967-448A-85BE-B33205222035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D17A6F7-AB81-46B4-9965-8634E2997B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
+    <workbookView xWindow="1780" yWindow="370" windowWidth="10170" windowHeight="9710" firstSheet="4" activeTab="7" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_model_runs" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="tbl_drone_actions" sheetId="4" r:id="rId5"/>
     <sheet name="tbl_rewards" sheetId="6" r:id="rId6"/>
     <sheet name="tbl_map_data" sheetId="9" r:id="rId7"/>
-    <sheet name="tbl_run_status" sheetId="10" r:id="rId8"/>
-    <sheet name="cd_obs_modes" sheetId="7" r:id="rId9"/>
+    <sheet name="tbl_rai" sheetId="11" r:id="rId8"/>
+    <sheet name="tbl_run_status" sheetId="10" r:id="rId9"/>
+    <sheet name="cd_obs_modes" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="1"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="151">
   <si>
     <t>Column</t>
   </si>
@@ -397,39 +398,6 @@
     <t>Order</t>
   </si>
   <si>
-    <t>obstacle_id</t>
-  </si>
-  <si>
-    <t>obstacle_color</t>
-  </si>
-  <si>
-    <t>point_type</t>
-  </si>
-  <si>
-    <t>obstacle_risk</t>
-  </si>
-  <si>
-    <t>Obstacle identifier</t>
-  </si>
-  <si>
-    <t>Obstacle type</t>
-  </si>
-  <si>
-    <t>Obstacle's assigned color</t>
-  </si>
-  <si>
-    <t>Obstacle's risk value</t>
-  </si>
-  <si>
-    <t>Type of coordinates (boundary = boundary point, interior = interior point)</t>
-  </si>
-  <si>
-    <t>X-coordinate</t>
-  </si>
-  <si>
-    <t>Y-coordinate</t>
-  </si>
-  <si>
     <t>distance_reward</t>
   </si>
   <si>
@@ -472,9 +440,6 @@
     <t xml:space="preserve">Time of status change. </t>
   </si>
   <si>
-    <t>obstacle</t>
-  </si>
-  <si>
     <t>improvement_multiplier</t>
   </si>
   <si>
@@ -485,6 +450,54 @@
   </si>
   <si>
     <t xml:space="preserve">The amount of damage incurred by each drone. Damage is incurred whenever a collision with an obstacle occurs. Obstacle damage is specified in the sidebar. </t>
+  </si>
+  <si>
+    <t>avoid_collisions</t>
+  </si>
+  <si>
+    <t>User selected "avoid collisions"</t>
+  </si>
+  <si>
+    <t>collision_penalty</t>
+  </si>
+  <si>
+    <t>avoid_buffer_zones</t>
+  </si>
+  <si>
+    <t>buffer_zone_size</t>
+  </si>
+  <si>
+    <t>buffer_entry_penalty</t>
+  </si>
+  <si>
+    <t>expected_completion_time</t>
+  </si>
+  <si>
+    <t>swarm_damage_tolerance</t>
+  </si>
+  <si>
+    <t>drone_damage_tolerance</t>
+  </si>
+  <si>
+    <t>Collision penalty</t>
+  </si>
+  <si>
+    <t>User selected "avoid buffer zones"</t>
+  </si>
+  <si>
+    <t>Buffer zone size</t>
+  </si>
+  <si>
+    <t>Buffer zone entry penalty</t>
+  </si>
+  <si>
+    <t>Expected completion time</t>
+  </si>
+  <si>
+    <t>Swarm damage tolerance</t>
+  </si>
+  <si>
+    <t>Drone damage tolerance</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +1018,178 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641A76F1-1090-4782-A501-7617F52974B8}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+    <col min="2" max="2" width="81.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"'"&amp;A2&amp;"',"</f>
+        <v>'2d_rbf_acc',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C13" si="0">"'"&amp;A3&amp;"',"</f>
+        <v>' 3d_rbf',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>' 2d_rbf_acc_limited',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>' 2d_rbf_limited',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>' 2d_hist_acc',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>' sum_obs_acc',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>' sum_obs_acc_full',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>' sum_obs_acc_no_vel',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>' sum_obs_acc_limited',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>' sum_obs',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>'sum_obs_limited',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>' fix_acc',</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B517A8-B52D-48A4-942B-6281A1EEFDD1}">
   <dimension ref="A1:H20"/>
@@ -1517,7 +1702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20A5FF3-022A-4020-8367-945DBCFC823C}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1739,7 +1924,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>81</v>
@@ -1752,7 +1937,7 @@
         <v>cint_drone_collisions</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1760,7 +1945,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>109</v>
@@ -1773,7 +1958,7 @@
         <v>cflt_drone_obstacle_distance</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29">
@@ -1781,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>109</v>
@@ -1794,7 +1979,7 @@
         <v>cflt_improvement_multiplier</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29">
@@ -1802,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>109</v>
@@ -1815,7 +2000,7 @@
         <v>cflt_drone_damage</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2405,7 @@
         <v>cflt_reward</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2228,7 +2413,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
@@ -2244,7 +2429,7 @@
         <v>cflt_distance_reward</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2252,7 +2437,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -2268,7 +2453,7 @@
         <v>cflt_action_penalty</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2279,191 +2464,231 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF37A31-3B28-4604-9D8C-DBF68941C386}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" customWidth="1"/>
     <col min="7" max="7" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" t="str">
-        <f>"c"&amp;D2&amp;"_"&amp;B2</f>
-        <v>cflt_run_id</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F9" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
-        <v>cint_obstacle_id</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>cstr_obstacle</v>
-      </c>
-      <c r="G4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>cstr_obstacle_color</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>cflt_obstacle_risk</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>cstr_point_type</v>
-      </c>
-      <c r="G7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>cflt_x_coord</v>
-      </c>
-      <c r="G8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>cflt_y_coord</v>
-      </c>
-      <c r="G9" t="s">
-        <v>127</v>
-      </c>
-    </row>
+    <row r="1" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A027DC6-C8DB-49CE-9E5E-31D6C2A1F553}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="7" max="7" width="39.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" si="0">"c"&amp;D2&amp;"_"&amp;B2</f>
+        <v>cflt_run_id</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>cbln_avoid_collisions</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_collision_penalty</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>cbln_avoid_buffer_zones</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_buffer_zone_size</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_buffer_entry_penalty</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="str">
+        <f>"c"&amp;D8&amp;"_"&amp;B8</f>
+        <v>cint_expected_completion_time</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="str">
+        <f>"c"&amp;D9&amp;"_"&amp;B9</f>
+        <v>cflt_swarm_damage_tolerance</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="str">
+        <f>"c"&amp;D10&amp;"_"&amp;B10</f>
+        <v>cflt_drone_damage_tolerance</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260E1204-6513-426E-BBFE-13C9DA867E0B}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -2548,7 +2773,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
@@ -2561,7 +2786,7 @@
         <v>cstr_run_status</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2569,20 +2794,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>cdtm_status_timestamp</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2600,176 +2825,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641A76F1-1090-4782-A501-7617F52974B8}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="81.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"'"&amp;A2&amp;"',"</f>
-        <v>'2d_rbf_acc',</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C13" si="0">"'"&amp;A3&amp;"',"</f>
-        <v>' 3d_rbf',</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>' 2d_rbf_acc_limited',</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>' 2d_rbf_limited',</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>' 2d_hist_acc',</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>' sum_obs_acc',</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>' sum_obs_acc_full',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>' sum_obs_acc_no_vel',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>' sum_obs_acc_limited',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>' sum_obs',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>'sum_obs_limited',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>' fix_acc',</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/assets/DRL Data Dictionary.xlsx
+++ b/assets/DRL Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D17A6F7-AB81-46B4-9965-8634E2997B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBC6349-BE05-4240-80DA-20CE2B550F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="370" windowWidth="10170" windowHeight="9710" firstSheet="4" activeTab="7" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_model_runs" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="157">
   <si>
     <t>Column</t>
   </si>
@@ -404,9 +404,6 @@
     <t>action_penalty</t>
   </si>
   <si>
-    <t>The average of the sum of inter-drone distances; what the model is trying to minimize</t>
-  </si>
-  <si>
     <t xml:space="preserve">A penalty based on the dynamism of the actions that were selected for the episode. Actions that result in significant changes are penalized. </t>
   </si>
   <si>
@@ -498,6 +495,27 @@
   </si>
   <si>
     <t>Drone damage tolerance</t>
+  </si>
+  <si>
+    <t>target_distance_reward</t>
+  </si>
+  <si>
+    <t>The average of the sum of drone-target distances; what the model is trying to minimize.</t>
+  </si>
+  <si>
+    <t>The average of the sum of inter-drone distances; what the model is trying to minimize.</t>
+  </si>
+  <si>
+    <t>all_collisions</t>
+  </si>
+  <si>
+    <t>Number of collisions during episode.</t>
+  </si>
+  <si>
+    <t>The average of the sume of drone-obstacle distances; what the model is trying to maximize.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The normalized distance of a drone that is currently in an obstacle from the obstacle's midpoint to the nearest boundary point. </t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1942,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>81</v>
@@ -1937,7 +1955,7 @@
         <v>cint_drone_collisions</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1945,20 +1963,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_drone_obstacle_distance</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>cflt_drone_obstacle_distance</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29">
@@ -1966,20 +1984,20 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_improvement_multiplier</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>cflt_improvement_multiplier</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29">
@@ -1987,20 +2005,20 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_drone_damage</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>cflt_drone_damage</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2297,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAFDC7F-214F-4F18-A4D1-3A7BCA68F2AA}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2377,7 +2395,7 @@
         <v>80</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F6" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
+        <f t="shared" ref="F3:F10" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
         <v>cint_episode_id</v>
       </c>
       <c r="G3" t="s">
@@ -2405,7 +2423,7 @@
         <v>cflt_reward</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2429,7 +2447,7 @@
         <v>cflt_distance_reward</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2453,7 +2471,103 @@
         <v>cflt_action_penalty</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_target_distance_reward</v>
+      </c>
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>cint_all_collisions</v>
+      </c>
+      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>cint_drone_obstacle_distance</v>
+      </c>
+      <c r="G9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_improvement_multiplier</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A027DC6-C8DB-49CE-9E5E-31D6C2A1F553}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2544,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
         <v>114</v>
@@ -2554,7 +2668,7 @@
         <v>cbln_avoid_collisions</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2562,7 +2676,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
         <v>109</v>
@@ -2572,7 +2686,7 @@
         <v>cflt_collision_penalty</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2580,7 +2694,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
@@ -2590,7 +2704,7 @@
         <v>cbln_avoid_buffer_zones</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2598,7 +2712,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -2608,7 +2722,7 @@
         <v>cflt_buffer_zone_size</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2616,7 +2730,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
         <v>109</v>
@@ -2626,7 +2740,7 @@
         <v>cflt_buffer_entry_penalty</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2634,7 +2748,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -2644,7 +2758,7 @@
         <v>cint_expected_completion_time</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2652,7 +2766,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
         <v>109</v>
@@ -2662,7 +2776,7 @@
         <v>cflt_swarm_damage_tolerance</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2670,7 +2784,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
         <v>109</v>
@@ -2680,7 +2794,7 @@
         <v>cflt_drone_damage_tolerance</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +2887,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
         <v>80</v>
@@ -2786,7 +2900,7 @@
         <v>cstr_run_status</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2794,20 +2908,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
         <v>126</v>
       </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>cdtm_status_timestamp</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/assets/DRL Data Dictionary.xlsx
+++ b/assets/DRL Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBC6349-BE05-4240-80DA-20CE2B550F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0DE9CB-9148-4F19-A7D4-DBEDBDE97E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
   </bookViews>
@@ -2318,12 +2318,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
     <col min="3" max="3" width="7.54296875" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" customWidth="1"/>
     <col min="6" max="6" width="29.81640625" customWidth="1"/>
@@ -2533,14 +2533,14 @@
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
         <v>80</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>cint_drone_obstacle_distance</v>
+        <v>cflt_drone_obstacle_distance</v>
       </c>
       <c r="G9" t="s">
         <v>155</v>

--- a/assets/DRL Data Dictionary.xlsx
+++ b/assets/DRL Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0DE9CB-9148-4F19-A7D4-DBEDBDE97E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018AC503-541C-4DCC-B240-53DFF77A053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="5" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
+    <workbookView minimized="1" xWindow="2120" yWindow="710" windowWidth="10170" windowHeight="9710" activeTab="1" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_model_runs" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
   <si>
     <t>Column</t>
   </si>
@@ -278,9 +278,6 @@
     <t xml:space="preserve">An array containing state information. </t>
   </si>
   <si>
-    <t>terminal_episode</t>
-  </si>
-  <si>
     <t>PK</t>
   </si>
   <si>
@@ -314,15 +311,9 @@
     <t>2d_rbf_acc, 3d_rbf,  2d_rbf_acc_limited,  2d_rbf_limited, 2d_hist_acc, sum_obs_acc, sum_obs_acc_full, sum_obs_acc_no_vel, sum_obs_acc_limited, sum_obs sum_obs_limited, fix_acc (see final tab for more information)</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date on which model was run. </t>
   </si>
   <si>
-    <t xml:space="preserve">Episode at which the model completes the mission. </t>
-  </si>
-  <si>
     <t>run_id=int(pickled_table["run_id"]),</t>
   </si>
   <si>
@@ -516,6 +507,18 @@
   </si>
   <si>
     <t xml:space="preserve">The normalized distance of a drone that is currently in an obstacle from the obstacle's midpoint to the nearest boundary point. </t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>Episode</t>
+  </si>
+  <si>
+    <t>model_status</t>
+  </si>
+  <si>
+    <t>Model status at given episode</t>
   </si>
 </sst>
 </file>
@@ -926,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AA34F9-C3D0-4299-9E56-CFB7146E2CAF}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -944,13 +947,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -959,7 +962,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -973,13 +976,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="str">
         <f>"c"&amp;D2&amp;"_"&amp;B2</f>
@@ -997,17 +1000,17 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F4" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
-        <v>cdate_run_date</v>
+        <f t="shared" ref="F3:F5" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
+        <v>cdtm_run_date</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1015,20 +1018,38 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>cbln_terminal_episode</v>
+        <v>cint_episode</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>cstr_model_status</v>
+      </c>
+      <c r="G5" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1212,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B517A8-B52D-48A4-942B-6281A1EEFDD1}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1227,13 +1248,13 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1242,13 +1263,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1259,13 +1280,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="str">
         <f>"c"&amp;D2&amp;"_"&amp;B2</f>
@@ -1275,7 +1296,7 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1286,10 +1307,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F20" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
@@ -1299,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1310,10 +1331,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -1323,7 +1344,7 @@
         <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="58">
@@ -1334,10 +1355,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -1347,7 +1368,7 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="43.5">
@@ -1358,10 +1379,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1371,7 +1392,7 @@
         <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1382,10 +1403,10 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -1395,7 +1416,7 @@
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1406,10 +1427,10 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -1419,7 +1440,7 @@
         <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1430,10 +1451,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -1443,7 +1464,7 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1454,10 +1475,10 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -1467,7 +1488,7 @@
         <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1478,10 +1499,10 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -1491,7 +1512,7 @@
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1502,10 +1523,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -1515,7 +1536,7 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1526,10 +1547,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -1539,7 +1560,7 @@
         <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="43.5">
@@ -1550,20 +1571,20 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>cstr_obs_mode</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1574,20 +1595,20 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>cint_comm_radius</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>cint_comm_radius</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="29">
@@ -1598,20 +1619,20 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>cint_world_size</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1622,20 +1643,20 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>cint_distance_bins</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1646,20 +1667,20 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>cint_bearing_bins</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1670,20 +1691,20 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>cbln_torus</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29">
@@ -1694,20 +1715,20 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>cstr_dynamics</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1739,13 +1760,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -1754,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
@@ -1768,13 +1789,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>"c"&amp;D2&amp;"_"&amp;B2</f>
@@ -1792,13 +1813,13 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" ref="F3:F13" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
@@ -1816,13 +1837,13 @@
         <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1840,10 +1861,10 @@
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1861,10 +1882,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1882,10 +1903,10 @@
         <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1903,10 +1924,10 @@
         <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1924,10 +1945,10 @@
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1942,20 +1963,20 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>cint_drone_collisions</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1963,20 +1984,20 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>cflt_drone_obstacle_distance</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29">
@@ -1984,20 +2005,20 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>cflt_improvement_multiplier</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29">
@@ -2005,20 +2026,20 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>cflt_drone_damage</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2047,13 +2068,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2062,7 +2083,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2076,13 +2097,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="str">
         <f>"c"&amp;D2&amp;"_"&amp;B2</f>
@@ -2100,13 +2121,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F4" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
@@ -2124,13 +2145,13 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -2166,13 +2187,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2181,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2195,13 +2216,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="str">
         <f>"c"&amp;D2&amp;"_"&amp;B2</f>
@@ -2219,13 +2240,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F6" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
@@ -2243,13 +2264,13 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -2267,13 +2288,13 @@
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -2291,13 +2312,13 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -2317,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAFDC7F-214F-4F18-A4D1-3A7BCA68F2AA}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2333,13 +2354,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2348,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2362,13 +2383,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="str">
         <f>"c"&amp;D2&amp;"_"&amp;B2</f>
@@ -2386,13 +2407,13 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F10" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
@@ -2410,20 +2431,20 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>cflt_reward</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2431,23 +2452,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>cflt_distance_reward</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2455,23 +2476,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>cflt_action_penalty</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2479,23 +2500,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>cflt_target_distance_reward</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2503,23 +2524,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
         <v>80</v>
       </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>cint_all_collisions</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2527,23 +2548,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>cflt_drone_obstacle_distance</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2551,23 +2572,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>cflt_improvement_multiplier</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2614,13 +2635,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2629,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2643,7 +2664,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F7" si="0">"c"&amp;D2&amp;"_"&amp;B2</f>
@@ -2658,17 +2679,17 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
         <v>cbln_avoid_collisions</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2676,17 +2697,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>cflt_collision_penalty</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2694,17 +2715,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>cbln_avoid_buffer_zones</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2712,17 +2733,17 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>cflt_buffer_zone_size</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2730,17 +2751,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>cflt_buffer_entry_penalty</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2748,17 +2769,17 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="str">
         <f>"c"&amp;D8&amp;"_"&amp;B8</f>
         <v>cint_expected_completion_time</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2766,17 +2787,17 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F9" t="str">
         <f>"c"&amp;D9&amp;"_"&amp;B9</f>
         <v>cflt_swarm_damage_tolerance</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2784,17 +2805,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F10" t="str">
         <f>"c"&amp;D10&amp;"_"&amp;B10</f>
         <v>cflt_drone_damage_tolerance</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2819,13 +2840,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2834,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2848,10 +2869,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F2" t="str">
         <f>"c"&amp;D2&amp;"_"&amp;B2</f>
@@ -2869,10 +2890,10 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F5" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
@@ -2887,20 +2908,20 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>cstr_run_status</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2908,20 +2929,20 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>cdtm_status_timestamp</v>
+      </c>
+      <c r="G5" t="s">
         <v>126</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>cdtm_status_timestamp</v>
-      </c>
-      <c r="G5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/assets/DRL Data Dictionary.xlsx
+++ b/assets/DRL Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018AC503-541C-4DCC-B240-53DFF77A053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4635C8E-6B9B-4357-AF8B-EDC5905BA52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2120" yWindow="710" windowWidth="10170" windowHeight="9710" activeTab="1" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_model_runs" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="172">
   <si>
     <t>Column</t>
   </si>
@@ -519,13 +519,55 @@
   </si>
   <si>
     <t>Model status at given episode</t>
+  </si>
+  <si>
+    <t>obstacle_id</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>obstacle_risk</t>
+  </si>
+  <si>
+    <t>obstacle_color</t>
+  </si>
+  <si>
+    <t>obstacle_shape</t>
+  </si>
+  <si>
+    <t>midpoint_x_coord</t>
+  </si>
+  <si>
+    <t>midpoint_y_coord</t>
+  </si>
+  <si>
+    <t>bottom_left</t>
+  </si>
+  <si>
+    <t>bottom_right</t>
+  </si>
+  <si>
+    <t>top_right</t>
+  </si>
+  <si>
+    <t>top_left</t>
+  </si>
+  <si>
+    <t>mid_top</t>
+  </si>
+  <si>
+    <t>direction_reward</t>
+  </si>
+  <si>
+    <t>buffer_penalty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +586,12 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FFBCBEC4"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -568,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -593,6 +641,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1233,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B517A8-B52D-48A4-942B-6281A1EEFDD1}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2336,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAFDC7F-214F-4F18-A4D1-3A7BCA68F2AA}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2416,7 +2467,7 @@
         <v>79</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F10" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
+        <f t="shared" ref="F3:F13" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
         <v>cint_episode_id</v>
       </c>
       <c r="G3" t="s">
@@ -2476,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -2489,10 +2540,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>cflt_action_penalty</v>
-      </c>
-      <c r="G6" t="s">
-        <v>116</v>
+        <v>cflt_direction_reward</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2512,7 +2560,7 @@
         <v>79</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f>"c"&amp;D7&amp;"_"&amp;B7</f>
         <v>cflt_target_distance_reward</v>
       </c>
       <c r="G7" t="s">
@@ -2524,23 +2572,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>cint_all_collisions</v>
+        <v>cflt_action_penalty</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2548,7 +2596,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -2561,10 +2609,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>cflt_drone_obstacle_distance</v>
-      </c>
-      <c r="G9" t="s">
-        <v>152</v>
+        <v>cflt_collision_penalty</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2572,22 +2617,91 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_buffer_penalty</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>cint_all_collisions</v>
+      </c>
+      <c r="G11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_drone_obstacle_distance</v>
+      </c>
+      <c r="G12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>127</v>
       </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="str">
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>cflt_improvement_multiplier</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2599,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF37A31-3B28-4604-9D8C-DBF68941C386}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2612,7 +2726,248 @@
     <col min="7" max="7" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"c"&amp;D2&amp;"_"&amp;B2</f>
+        <v>cint_obstacle_id</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F13" si="0">"c"&amp;D3&amp;"_"&amp;B3</f>
+        <v>cstr_obstacle</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_obstacle_risk</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>cstr_obstacle_color</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>cstr_obstacle_shape</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_midpoint_x_coord</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>cflt_midpoint_y_coord</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>cstr_bottom_left</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>cstr_bottom_right</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>cstr_top_right</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>cstr_top_left</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>cstr_mid_top</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2623,7 +2978,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/assets/DRL Data Dictionary.xlsx
+++ b/assets/DRL Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkloc\PycharmProjects\CapstoneApp\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4635C8E-6B9B-4357-AF8B-EDC5905BA52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D24BEB-8F06-46D2-A06F-5CAF2FE76090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{1473D144-172C-4ACD-A0E2-A556FD0C9732}"/>
   </bookViews>
   <sheets>
     <sheet name="tbl_model_runs" sheetId="1" r:id="rId1"/>
@@ -2389,7 +2389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABAFDC7F-214F-4F18-A4D1-3A7BCA68F2AA}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2977,8 +2977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A027DC6-C8DB-49CE-9E5E-31D6C2A1F553}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3022,7 +3022,7 @@
         <v>106</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F7" si="0">"c"&amp;D2&amp;"_"&amp;B2</f>
+        <f t="shared" ref="F2:F10" si="0">"c"&amp;D2&amp;"_"&amp;B2</f>
         <v>cflt_run_id</v>
       </c>
       <c r="G2" t="s">
@@ -3031,146 +3031,146 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>cbln_avoid_collisions</v>
+        <f>"c"&amp;D3&amp;"_"&amp;B3</f>
+        <v>cint_expected_completion_time</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>cflt_collision_penalty</v>
+        <f>"c"&amp;D4&amp;"_"&amp;B4</f>
+        <v>cflt_swarm_damage_tolerance</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>cbln_avoid_buffer_zones</v>
+        <f>"c"&amp;D5&amp;"_"&amp;B5</f>
+        <v>cflt_drone_damage_tolerance</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>cflt_buffer_zone_size</v>
+        <v>cbln_avoid_collisions</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>cflt_buffer_entry_penalty</v>
+        <v>cflt_collision_penalty</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F8" t="str">
-        <f>"c"&amp;D8&amp;"_"&amp;B8</f>
-        <v>cint_expected_completion_time</v>
+        <f t="shared" si="0"/>
+        <v>cbln_avoid_buffer_zones</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
       </c>
       <c r="F9" t="str">
-        <f>"c"&amp;D9&amp;"_"&amp;B9</f>
-        <v>cflt_swarm_damage_tolerance</v>
+        <f t="shared" si="0"/>
+        <v>cflt_buffer_zone_size</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
       </c>
       <c r="F10" t="str">
-        <f>"c"&amp;D10&amp;"_"&amp;B10</f>
-        <v>cflt_drone_damage_tolerance</v>
+        <f t="shared" si="0"/>
+        <v>cflt_buffer_entry_penalty</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
